--- a/q23/含分组信息数据.xlsx
+++ b/q23/含分组信息数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB101"/>
+  <dimension ref="A1:AB131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -644,7 +644,7 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -780,7 +780,7 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -984,7 +984,7 @@
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1064,7 +1064,7 @@
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1132,7 +1132,7 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1268,7 +1268,7 @@
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1332,7 +1332,7 @@
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1484,7 +1484,7 @@
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1616,7 +1616,7 @@
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1680,7 +1680,7 @@
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1748,7 +1748,7 @@
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -2032,7 +2032,7 @@
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -2096,7 +2096,7 @@
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2176,7 +2176,7 @@
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2244,7 +2244,7 @@
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2308,7 +2308,7 @@
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2376,7 +2376,7 @@
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2444,7 +2444,7 @@
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -2516,7 +2516,7 @@
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -2584,7 +2584,7 @@
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -2656,7 +2656,7 @@
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2720,7 +2720,7 @@
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -2784,7 +2784,7 @@
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -2860,7 +2860,7 @@
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2928,7 +2928,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -3004,7 +3004,7 @@
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3076,7 +3076,7 @@
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -3148,7 +3148,7 @@
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3220,7 +3220,7 @@
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -3300,7 +3300,7 @@
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -3376,7 +3376,7 @@
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -3444,7 +3444,7 @@
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -3512,7 +3512,7 @@
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -3580,7 +3580,7 @@
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3656,7 +3656,7 @@
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -3724,7 +3724,7 @@
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3788,7 +3788,7 @@
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3856,7 +3856,7 @@
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -3924,7 +3924,7 @@
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -3992,7 +3992,7 @@
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4056,7 +4056,7 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -4128,7 +4128,7 @@
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -4204,7 +4204,7 @@
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -4272,7 +4272,7 @@
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -4340,7 +4340,7 @@
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -4404,7 +4404,7 @@
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -4492,7 +4492,7 @@
         <v>75</v>
       </c>
       <c r="AB57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -4556,7 +4556,7 @@
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4620,7 +4620,7 @@
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -4684,7 +4684,7 @@
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -4772,7 +4772,7 @@
         <v>20720</v>
       </c>
       <c r="AB61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -4848,7 +4848,7 @@
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -4912,7 +4912,7 @@
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4996,7 +4996,7 @@
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -5072,7 +5072,7 @@
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -5140,7 +5140,7 @@
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -5212,7 +5212,7 @@
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -5276,7 +5276,7 @@
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -5360,7 +5360,7 @@
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -5432,7 +5432,7 @@
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -5496,7 +5496,7 @@
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -5572,7 +5572,7 @@
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
@@ -5636,7 +5636,7 @@
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
@@ -5700,7 +5700,7 @@
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -5776,7 +5776,7 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -5848,7 +5848,7 @@
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -5920,7 +5920,7 @@
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -5992,7 +5992,7 @@
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -6056,7 +6056,7 @@
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -6128,7 +6128,7 @@
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -6192,7 +6192,7 @@
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -6264,7 +6264,7 @@
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -6328,7 +6328,7 @@
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -6392,7 +6392,7 @@
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -6464,7 +6464,7 @@
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -6540,7 +6540,7 @@
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -6608,7 +6608,7 @@
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -6680,7 +6680,7 @@
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -6744,7 +6744,7 @@
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -6812,7 +6812,7 @@
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -6880,7 +6880,7 @@
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -6948,7 +6948,7 @@
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -7016,7 +7016,7 @@
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -7088,7 +7088,7 @@
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -7160,7 +7160,7 @@
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -7232,7 +7232,7 @@
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -7308,7 +7308,7 @@
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -7372,7 +7372,7 @@
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -7444,7 +7444,7 @@
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -7508,7 +7508,7 @@
       <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -7572,7 +7572,2015 @@
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>sub101</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
         <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>7200</v>
+      </c>
+      <c r="K102" t="n">
+        <v>9700</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>sub132</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3600</v>
+      </c>
+      <c r="K103" t="n">
+        <v>7300</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1976285</v>
+      </c>
+      <c r="M103" t="n">
+        <v>17429</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>sub133</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>10800</v>
+      </c>
+      <c r="K104" t="n">
+        <v>18639</v>
+      </c>
+      <c r="L104" t="n">
+        <v>96833</v>
+      </c>
+      <c r="M104" t="n">
+        <v>17583</v>
+      </c>
+      <c r="N104" t="n">
+        <v>443254</v>
+      </c>
+      <c r="O104" t="n">
+        <v>22400</v>
+      </c>
+      <c r="P104" t="n">
+        <v>782610</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>22437</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4502367</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>sub134</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>5</v>
+      </c>
+      <c r="J105" t="n">
+        <v>18000</v>
+      </c>
+      <c r="K105" t="n">
+        <v>11179</v>
+      </c>
+      <c r="L105" t="n">
+        <v>73269</v>
+      </c>
+      <c r="M105" t="n">
+        <v>11453</v>
+      </c>
+      <c r="N105" t="n">
+        <v>764146</v>
+      </c>
+      <c r="O105" t="n">
+        <v>3342</v>
+      </c>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>sub135</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>7200</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3661</v>
+      </c>
+      <c r="L106" t="n">
+        <v>17804</v>
+      </c>
+      <c r="M106" t="n">
+        <v>7003</v>
+      </c>
+      <c r="N106" t="n">
+        <v>251311</v>
+      </c>
+      <c r="O106" t="n">
+        <v>12213</v>
+      </c>
+      <c r="P106" t="n">
+        <v>402001</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>12485</v>
+      </c>
+      <c r="R106" t="n">
+        <v>749301</v>
+      </c>
+      <c r="S106" t="n">
+        <v>6365</v>
+      </c>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>sub136</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>7200</v>
+      </c>
+      <c r="K107" t="n">
+        <v>10084</v>
+      </c>
+      <c r="L107" t="n">
+        <v>69750</v>
+      </c>
+      <c r="M107" t="n">
+        <v>32322</v>
+      </c>
+      <c r="N107" t="n">
+        <v>396071</v>
+      </c>
+      <c r="O107" t="n">
+        <v>42163</v>
+      </c>
+      <c r="P107" t="n">
+        <v>1711140</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>88306</v>
+      </c>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>sub137</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>24</v>
+      </c>
+      <c r="J108" t="n">
+        <v>86400</v>
+      </c>
+      <c r="K108" t="n">
+        <v>4101</v>
+      </c>
+      <c r="L108" t="n">
+        <v>151055</v>
+      </c>
+      <c r="M108" t="n">
+        <v>6057</v>
+      </c>
+      <c r="N108" t="n">
+        <v>747817</v>
+      </c>
+      <c r="O108" t="n">
+        <v>3202</v>
+      </c>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>sub138</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>10800</v>
+      </c>
+      <c r="K109" t="n">
+        <v>762</v>
+      </c>
+      <c r="L109" t="n">
+        <v>42391</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1644</v>
+      </c>
+      <c r="N109" t="n">
+        <v>103777</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1763</v>
+      </c>
+      <c r="P109" t="n">
+        <v>363948</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4605</v>
+      </c>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>sub139</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J110" t="n">
+        <v>16200</v>
+      </c>
+      <c r="K110" t="n">
+        <v>13402</v>
+      </c>
+      <c r="L110" t="n">
+        <v>49822</v>
+      </c>
+      <c r="M110" t="n">
+        <v>54354</v>
+      </c>
+      <c r="N110" t="n">
+        <v>128845</v>
+      </c>
+      <c r="O110" t="n">
+        <v>71265</v>
+      </c>
+      <c r="P110" t="n">
+        <v>491058</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>57072</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1011895</v>
+      </c>
+      <c r="S110" t="n">
+        <v>51239</v>
+      </c>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>sub140</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1188</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3497</v>
+      </c>
+      <c r="L111" t="n">
+        <v>61567</v>
+      </c>
+      <c r="M111" t="n">
+        <v>6618</v>
+      </c>
+      <c r="N111" t="n">
+        <v>422626</v>
+      </c>
+      <c r="O111" t="n">
+        <v>11664</v>
+      </c>
+      <c r="P111" t="n">
+        <v>771931</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>10201</v>
+      </c>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>sub141</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>14</v>
+      </c>
+      <c r="J112" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K112" t="n">
+        <v>33501</v>
+      </c>
+      <c r="L112" t="n">
+        <v>179057</v>
+      </c>
+      <c r="M112" t="n">
+        <v>34596</v>
+      </c>
+      <c r="N112" t="n">
+        <v>435228</v>
+      </c>
+      <c r="O112" t="n">
+        <v>60482</v>
+      </c>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>sub142</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J113" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K113" t="n">
+        <v>38120</v>
+      </c>
+      <c r="L113" t="n">
+        <v>37041</v>
+      </c>
+      <c r="M113" t="n">
+        <v>63495</v>
+      </c>
+      <c r="N113" t="n">
+        <v>131107</v>
+      </c>
+      <c r="O113" t="n">
+        <v>57174</v>
+      </c>
+      <c r="P113" t="n">
+        <v>637973</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>116414</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1048209</v>
+      </c>
+      <c r="S113" t="n">
+        <v>14664</v>
+      </c>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>sub143</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>10800</v>
+      </c>
+      <c r="K114" t="n">
+        <v>25806</v>
+      </c>
+      <c r="L114" t="n">
+        <v>82745</v>
+      </c>
+      <c r="M114" t="n">
+        <v>27125</v>
+      </c>
+      <c r="N114" t="n">
+        <v>238653</v>
+      </c>
+      <c r="O114" t="n">
+        <v>32672</v>
+      </c>
+      <c r="P114" t="n">
+        <v>427848</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>26229</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1466000</v>
+      </c>
+      <c r="S114" t="n">
+        <v>4034</v>
+      </c>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>sub144</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J115" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K115" t="n">
+        <v>28944</v>
+      </c>
+      <c r="L115" t="n">
+        <v>98818</v>
+      </c>
+      <c r="M115" t="n">
+        <v>34246</v>
+      </c>
+      <c r="N115" t="n">
+        <v>354557</v>
+      </c>
+      <c r="O115" t="n">
+        <v>16214</v>
+      </c>
+      <c r="P115" t="n">
+        <v>1151763</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>6968</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2258722</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5123</v>
+      </c>
+      <c r="T115" t="n">
+        <v>29042775</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>sub145</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>12</v>
+      </c>
+      <c r="J116" t="n">
+        <v>43200</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1097</v>
+      </c>
+      <c r="L116" t="n">
+        <v>183563</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5288</v>
+      </c>
+      <c r="N116" t="n">
+        <v>695654</v>
+      </c>
+      <c r="O116" t="n">
+        <v>404</v>
+      </c>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>sub146</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5400</v>
+      </c>
+      <c r="K117" t="n">
+        <v>118</v>
+      </c>
+      <c r="L117" t="n">
+        <v>27929</v>
+      </c>
+      <c r="M117" t="n">
+        <v>38</v>
+      </c>
+      <c r="N117" t="n">
+        <v>77924</v>
+      </c>
+      <c r="O117" t="n">
+        <v>81</v>
+      </c>
+      <c r="P117" t="n">
+        <v>679220</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>98</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1630447</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" t="n">
+        <v>5262989</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>sub147</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1080</v>
+      </c>
+      <c r="K118" t="n">
+        <v>9837</v>
+      </c>
+      <c r="L118" t="n">
+        <v>31907</v>
+      </c>
+      <c r="M118" t="n">
+        <v>32668</v>
+      </c>
+      <c r="N118" t="n">
+        <v>83358</v>
+      </c>
+      <c r="O118" t="n">
+        <v>39708</v>
+      </c>
+      <c r="P118" t="n">
+        <v>255329</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>46431</v>
+      </c>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>sub148</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>7200</v>
+      </c>
+      <c r="K119" t="n">
+        <v>4137</v>
+      </c>
+      <c r="L119" t="n">
+        <v>186863</v>
+      </c>
+      <c r="M119" t="n">
+        <v>8607</v>
+      </c>
+      <c r="N119" t="n">
+        <v>787645</v>
+      </c>
+      <c r="O119" t="n">
+        <v>4721</v>
+      </c>
+      <c r="P119" t="n">
+        <v>2339803</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>14902</v>
+      </c>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>sub149</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3</v>
+      </c>
+      <c r="J120" t="n">
+        <v>10800</v>
+      </c>
+      <c r="K120" t="n">
+        <v>12928</v>
+      </c>
+      <c r="L120" t="n">
+        <v>31789</v>
+      </c>
+      <c r="M120" t="n">
+        <v>8780</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>sub150</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>24</v>
+      </c>
+      <c r="J121" t="n">
+        <v>86400</v>
+      </c>
+      <c r="K121" t="n">
+        <v>7909</v>
+      </c>
+      <c r="L121" t="n">
+        <v>170319</v>
+      </c>
+      <c r="M121" t="n">
+        <v>8207</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>sub151</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>7200</v>
+      </c>
+      <c r="K122" t="n">
+        <v>25187</v>
+      </c>
+      <c r="L122" t="n">
+        <v>29629</v>
+      </c>
+      <c r="M122" t="n">
+        <v>33038</v>
+      </c>
+      <c r="N122" t="n">
+        <v>112169</v>
+      </c>
+      <c r="O122" t="n">
+        <v>32200</v>
+      </c>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>sub152</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>14400</v>
+      </c>
+      <c r="K123" t="n">
+        <v>21341</v>
+      </c>
+      <c r="L123" t="n">
+        <v>68462</v>
+      </c>
+      <c r="M123" t="n">
+        <v>9073</v>
+      </c>
+      <c r="N123" t="n">
+        <v>678219</v>
+      </c>
+      <c r="O123" t="n">
+        <v>22191</v>
+      </c>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>sub153</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7</v>
+      </c>
+      <c r="J124" t="n">
+        <v>25200</v>
+      </c>
+      <c r="K124" t="n">
+        <v>56109</v>
+      </c>
+      <c r="L124" t="n">
+        <v>154504</v>
+      </c>
+      <c r="M124" t="n">
+        <v>37111</v>
+      </c>
+      <c r="N124" t="n">
+        <v>231913</v>
+      </c>
+      <c r="O124" t="n">
+        <v>59082</v>
+      </c>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>sub154</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>21</v>
+      </c>
+      <c r="J125" t="n">
+        <v>75600</v>
+      </c>
+      <c r="K125" t="n">
+        <v>11576</v>
+      </c>
+      <c r="L125" t="n">
+        <v>233339</v>
+      </c>
+      <c r="M125" t="n">
+        <v>19641</v>
+      </c>
+      <c r="N125" t="n">
+        <v>510536</v>
+      </c>
+      <c r="O125" t="n">
+        <v>21113</v>
+      </c>
+      <c r="P125" t="n">
+        <v>673664</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>13895</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1291780</v>
+      </c>
+      <c r="S125" t="n">
+        <v>61733</v>
+      </c>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>sub155</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J126" t="n">
+        <v>11880</v>
+      </c>
+      <c r="K126" t="n">
+        <v>25699</v>
+      </c>
+      <c r="L126" t="n">
+        <v>124139</v>
+      </c>
+      <c r="M126" t="n">
+        <v>52007</v>
+      </c>
+      <c r="N126" t="n">
+        <v>735039</v>
+      </c>
+      <c r="O126" t="n">
+        <v>97158</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1335092</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>114352</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1678275</v>
+      </c>
+      <c r="S126" t="n">
+        <v>109019</v>
+      </c>
+      <c r="T126" t="n">
+        <v>9285528</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0</v>
+      </c>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>sub156</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J127" t="n">
+        <v>19800</v>
+      </c>
+      <c r="K127" t="n">
+        <v>8968</v>
+      </c>
+      <c r="L127" t="n">
+        <v>89575</v>
+      </c>
+      <c r="M127" t="n">
+        <v>12860</v>
+      </c>
+      <c r="N127" t="n">
+        <v>452217</v>
+      </c>
+      <c r="O127" t="n">
+        <v>13716</v>
+      </c>
+      <c r="P127" t="n">
+        <v>1055942</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>12709</v>
+      </c>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>sub157</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1800</v>
+      </c>
+      <c r="K128" t="n">
+        <v>409</v>
+      </c>
+      <c r="L128" t="n">
+        <v>4920</v>
+      </c>
+      <c r="M128" t="n">
+        <v>3742</v>
+      </c>
+      <c r="N128" t="n">
+        <v>25620</v>
+      </c>
+      <c r="O128" t="n">
+        <v>53311</v>
+      </c>
+      <c r="P128" t="n">
+        <v>72240</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>29545</v>
+      </c>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>sub158</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J129" t="n">
+        <v>10080</v>
+      </c>
+      <c r="K129" t="n">
+        <v>17948</v>
+      </c>
+      <c r="L129" t="n">
+        <v>66180</v>
+      </c>
+      <c r="M129" t="n">
+        <v>21099</v>
+      </c>
+      <c r="N129" t="n">
+        <v>256680</v>
+      </c>
+      <c r="O129" t="n">
+        <v>44069</v>
+      </c>
+      <c r="P129" t="n">
+        <v>1111140</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>64243</v>
+      </c>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>sub159</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3</v>
+      </c>
+      <c r="J130" t="n">
+        <v>10800</v>
+      </c>
+      <c r="K130" t="n">
+        <v>14430</v>
+      </c>
+      <c r="L130" t="n">
+        <v>95520</v>
+      </c>
+      <c r="M130" t="n">
+        <v>19019</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>sub160</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4</v>
+      </c>
+      <c r="J131" t="n">
+        <v>14400</v>
+      </c>
+      <c r="K131" t="n">
+        <v>18622</v>
+      </c>
+      <c r="L131" t="n">
+        <v>62940</v>
+      </c>
+      <c r="M131" t="n">
+        <v>28683</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
